--- a/myscore6_vocab_groups.xlsx
+++ b/myscore6_vocab_groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\englishvoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\englishvoice\generate_mp3_from_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AAF04B-C281-460A-B6B6-7EC0AC650CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC01762-4107-4B65-97FD-3830CE72DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2445" windowWidth="14400" windowHeight="7380" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="29" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1221">
   <si>
     <t>word</t>
   </si>
@@ -182,127 +182,43 @@
     <t>effort</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'effort'.</t>
-  </si>
-  <si>
-    <t>effort 的中文意思</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'care'.</t>
-  </si>
-  <si>
-    <t>care 的中文意思</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'stop'.</t>
-  </si>
-  <si>
-    <t>stop 的中文意思</t>
-  </si>
-  <si>
     <t>forget</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'forget'.</t>
-  </si>
-  <si>
-    <t>forget 的中文意思</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'book'.</t>
-  </si>
-  <si>
-    <t>book 的中文意思</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'right'.</t>
-  </si>
-  <si>
-    <t>right 的中文意思</t>
-  </si>
-  <si>
     <t>reduce</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'reduce'.</t>
-  </si>
-  <si>
-    <t>reduce 的中文意思</t>
-  </si>
-  <si>
     <t>difference</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'difference'.</t>
-  </si>
-  <si>
-    <t>difference 的中文意思</t>
-  </si>
-  <si>
     <t>meeting</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'meeting'.</t>
-  </si>
-  <si>
-    <t>meeting 的中文意思</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'science'.</t>
-  </si>
-  <si>
-    <t>science 的中文意思</t>
-  </si>
-  <si>
     <t>interest</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'interest'.</t>
-  </si>
-  <si>
-    <t>interest 的中文意思</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'building'.</t>
-  </si>
-  <si>
-    <t>building 的中文意思</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>This is a sample sentence using the word 'money'.</t>
-  </si>
-  <si>
-    <t>money 的中文意思</t>
-  </si>
-  <si>
     <t>week</t>
-  </si>
-  <si>
-    <t>This is a sample sentence using the word 'week'.</t>
-  </si>
-  <si>
-    <t>week 的中文意思</t>
   </si>
   <si>
     <t>use</t>
@@ -3710,6 +3626,96 @@
   </si>
   <si>
     <t>他上週末買了一輛新車。</t>
+  </si>
+  <si>
+    <t>She made a great effort to finish on time.</t>
+  </si>
+  <si>
+    <t>Please take care of this package.</t>
+  </si>
+  <si>
+    <t>The bus will stop at the next station.</t>
+  </si>
+  <si>
+    <t>Don’t forget to bring your ID.</t>
+  </si>
+  <si>
+    <t>I borrowed a book from the library.</t>
+  </si>
+  <si>
+    <t>You have the right to remain silent.</t>
+  </si>
+  <si>
+    <t>We need to reduce plastic waste.</t>
+  </si>
+  <si>
+    <t>There’s a big difference between the two plans.</t>
+  </si>
+  <si>
+    <t>The meeting starts at 3 PM.</t>
+  </si>
+  <si>
+    <t>Science helps us understand the world.</t>
+  </si>
+  <si>
+    <t>He has a strong interest in history.</t>
+  </si>
+  <si>
+    <t>That building is over 100 years old.</t>
+  </si>
+  <si>
+    <t>She saved money for a new phone.</t>
+  </si>
+  <si>
+    <t>We’ll go hiking next week.</t>
+  </si>
+  <si>
+    <t>How do you use this machine?</t>
+  </si>
+  <si>
+    <t>她努力準時完成。</t>
+  </si>
+  <si>
+    <t>請小心處理這個包裹。</t>
+  </si>
+  <si>
+    <t>公車會在下一站停。</t>
+  </si>
+  <si>
+    <t>別忘了帶身分證。</t>
+  </si>
+  <si>
+    <t>我從圖書館借了一本書。</t>
+  </si>
+  <si>
+    <t>你有權保持沉默。</t>
+  </si>
+  <si>
+    <t>我們需要減少塑膠垃圾。</t>
+  </si>
+  <si>
+    <t>這兩個計畫有很大的差異。</t>
+  </si>
+  <si>
+    <t>會議下午三點開始。</t>
+  </si>
+  <si>
+    <t>科學幫助我們了解世界。</t>
+  </si>
+  <si>
+    <t>他對歷史很感興趣。</t>
+  </si>
+  <si>
+    <t>那棟建築已有超過一百年歷史。</t>
+  </si>
+  <si>
+    <t>她存錢買新手機。</t>
+  </si>
+  <si>
+    <t>我們下週要去爬山。</t>
+  </si>
+  <si>
+    <t>你怎麼使用這台機器？</t>
   </si>
 </sst>
 </file>
@@ -4091,15 +4097,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
       <c r="B1" t="s">
-        <v>1188</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>1179</v>
+        <v>1151</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4107,7 +4113,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>1180</v>
+        <v>1152</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4115,21 +4121,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>1181</v>
+        <v>1153</v>
       </c>
       <c r="C4" t="s">
-        <v>1182</v>
+        <v>1154</v>
       </c>
       <c r="D4" t="s">
-        <v>1183</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>1184</v>
+        <v>1156</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4137,13 +4143,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>1185</v>
+        <v>1157</v>
       </c>
       <c r="B6" t="s">
-        <v>1186</v>
+        <v>1158</v>
       </c>
       <c r="C6" t="s">
-        <v>1187</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -4179,13 +4185,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -4196,13 +4202,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4213,13 +4219,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -4230,13 +4236,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -4247,13 +4253,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -4264,13 +4270,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -4281,13 +4287,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -4298,13 +4304,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -4315,13 +4321,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -4332,13 +4338,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -4349,13 +4355,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4366,13 +4372,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -4383,13 +4389,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -4400,13 +4406,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -4417,13 +4423,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -4465,13 +4471,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -4482,13 +4488,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -4499,13 +4505,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -4516,13 +4522,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -4533,13 +4539,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -4550,13 +4556,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -4567,13 +4573,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -4584,13 +4590,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -4601,13 +4607,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -4618,13 +4624,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -4635,13 +4641,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -4652,13 +4658,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4669,13 +4675,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -4686,13 +4692,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -4703,13 +4709,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -4751,13 +4757,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -4768,13 +4774,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -4785,13 +4791,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -4802,13 +4808,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -4819,13 +4825,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -4836,13 +4842,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -4853,13 +4859,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -4870,13 +4876,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -4887,13 +4893,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -4904,13 +4910,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -4921,13 +4927,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4938,13 +4944,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4955,13 +4961,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -4972,13 +4978,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -4989,13 +4995,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -5037,13 +5043,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -5054,13 +5060,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5071,13 +5077,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -5088,13 +5094,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -5122,13 +5128,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -5139,13 +5145,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -5156,13 +5162,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -5173,13 +5179,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -5190,13 +5196,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -5207,13 +5213,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -5224,13 +5230,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -5241,13 +5247,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -5258,13 +5264,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C15" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -5275,13 +5281,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C16" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -5323,13 +5329,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -5340,13 +5346,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5357,13 +5363,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -5374,13 +5380,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -5391,13 +5397,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -5408,13 +5414,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -5425,13 +5431,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -5442,13 +5448,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -5459,13 +5465,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -5476,13 +5482,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -5493,13 +5499,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -5510,13 +5516,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -5527,13 +5533,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -5544,13 +5550,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -5561,13 +5567,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -5609,13 +5615,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -5626,13 +5632,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5643,13 +5649,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -5660,13 +5666,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -5677,13 +5683,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -5694,13 +5700,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -5711,13 +5717,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -5728,13 +5734,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -5745,13 +5751,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -5762,13 +5768,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -5779,13 +5785,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -5796,13 +5802,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="C13" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -5813,13 +5819,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -5830,13 +5836,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="B15" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -5847,13 +5853,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="B16" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C16" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -5895,13 +5901,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -5912,13 +5918,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -5929,13 +5935,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -5946,13 +5952,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -5963,13 +5969,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -5980,13 +5986,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -6000,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -6014,13 +6020,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="C9" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -6031,13 +6037,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -6048,13 +6054,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -6065,13 +6071,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="C12" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -6082,13 +6088,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -6099,13 +6105,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="C14" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6116,13 +6122,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="B15" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C15" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -6133,13 +6139,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -6181,13 +6187,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -6198,13 +6204,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -6215,13 +6221,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="C4" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -6232,13 +6238,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -6249,13 +6255,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="B6" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -6266,13 +6272,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="B7" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -6283,13 +6289,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="B8" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="C8" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -6300,13 +6306,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -6317,13 +6323,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -6334,13 +6340,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="B11" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="C11" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -6351,13 +6357,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="C12" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -6368,13 +6374,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="B13" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="C13" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -6385,13 +6391,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B14" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6402,13 +6408,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="B15" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="C15" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -6419,13 +6425,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="B16" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="C16" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -6467,13 +6473,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -6484,13 +6490,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="C3" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -6501,13 +6507,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -6518,13 +6524,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -6535,13 +6541,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -6552,13 +6558,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -6569,13 +6575,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -6586,13 +6592,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="B9" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -6603,13 +6609,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="B10" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -6620,13 +6626,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -6637,13 +6643,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="B12" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="C12" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -6654,13 +6660,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="B13" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="C13" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -6671,13 +6677,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="C14" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6688,13 +6694,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="B15" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="C15" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -6705,13 +6711,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="B16" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="C16" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -6753,13 +6759,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -6770,13 +6776,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -6787,13 +6793,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="C4" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -6804,13 +6810,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -6821,13 +6827,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C6" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -6838,13 +6844,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -6855,13 +6861,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="B8" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="C8" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -6872,13 +6878,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="B9" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="C9" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -6889,13 +6895,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -6906,13 +6912,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -6923,13 +6929,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="B12" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -6940,13 +6946,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="B13" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="C13" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -6957,13 +6963,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -6974,13 +6980,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="B15" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -6991,13 +6997,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="B16" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="C16" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -7044,10 +7050,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1174</v>
+        <v>1146</v>
       </c>
       <c r="C2" t="s">
-        <v>1176</v>
+        <v>1148</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -7061,10 +7067,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1175</v>
+        <v>1147</v>
       </c>
       <c r="C3" t="s">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -7078,10 +7084,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>1148</v>
+        <v>1120</v>
       </c>
       <c r="C4" t="s">
-        <v>1161</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -7095,10 +7101,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="C5" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -7112,10 +7118,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>1150</v>
+        <v>1122</v>
       </c>
       <c r="C6" t="s">
-        <v>1163</v>
+        <v>1135</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -7129,10 +7135,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1151</v>
+        <v>1123</v>
       </c>
       <c r="C7" t="s">
-        <v>1164</v>
+        <v>1136</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -7146,10 +7152,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1152</v>
+        <v>1124</v>
       </c>
       <c r="C8" t="s">
-        <v>1165</v>
+        <v>1137</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -7163,10 +7169,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>1153</v>
+        <v>1125</v>
       </c>
       <c r="C9" t="s">
-        <v>1166</v>
+        <v>1138</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -7180,10 +7186,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>1154</v>
+        <v>1126</v>
       </c>
       <c r="C10" t="s">
-        <v>1167</v>
+        <v>1139</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -7197,10 +7203,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>1155</v>
+        <v>1127</v>
       </c>
       <c r="C11" t="s">
-        <v>1168</v>
+        <v>1140</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -7214,10 +7220,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>1156</v>
+        <v>1128</v>
       </c>
       <c r="C12" t="s">
-        <v>1169</v>
+        <v>1141</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -7231,10 +7237,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>1157</v>
+        <v>1129</v>
       </c>
       <c r="C13" t="s">
-        <v>1170</v>
+        <v>1142</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -7248,10 +7254,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>1158</v>
+        <v>1130</v>
       </c>
       <c r="C14" t="s">
-        <v>1171</v>
+        <v>1143</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -7265,10 +7271,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>1159</v>
+        <v>1131</v>
       </c>
       <c r="C15" t="s">
-        <v>1172</v>
+        <v>1144</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -7282,10 +7288,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>1160</v>
+        <v>1132</v>
       </c>
       <c r="C16" t="s">
-        <v>1173</v>
+        <v>1145</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -7327,13 +7333,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C2" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -7344,13 +7350,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="B3" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="C3" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -7361,13 +7367,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="B4" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="C4" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -7378,13 +7384,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="C5" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -7395,13 +7401,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="B6" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="C6" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -7412,13 +7418,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="B7" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="C7" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -7429,13 +7435,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="B8" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C8" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -7446,13 +7452,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B9" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="C9" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -7463,13 +7469,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="B10" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -7480,13 +7486,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="C11" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -7497,13 +7503,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="B12" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="C12" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -7514,13 +7520,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="B13" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="C13" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -7531,13 +7537,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B14" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C14" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -7548,13 +7554,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="C15" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -7565,13 +7571,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="B16" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="C16" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -7613,13 +7619,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -7630,13 +7636,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="C3" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -7647,13 +7653,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="B4" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="C4" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -7664,13 +7670,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="C5" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -7681,13 +7687,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="B6" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="C6" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -7698,13 +7704,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="B7" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -7715,13 +7721,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="C8" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -7732,13 +7738,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="C9" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -7749,13 +7755,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="C10" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -7766,13 +7772,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="C11" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -7783,13 +7789,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="B12" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="C12" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -7800,13 +7806,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="B13" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="C13" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -7817,13 +7823,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="B14" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -7834,13 +7840,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="B15" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="C15" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -7851,13 +7857,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="B16" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="C16" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -7899,13 +7905,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="C2" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -7916,13 +7922,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="B3" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -7933,13 +7939,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="B4" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="C4" t="s">
-        <v>839</v>
+        <v>811</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -7950,13 +7956,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="B5" t="s">
-        <v>841</v>
+        <v>813</v>
       </c>
       <c r="C5" t="s">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -7967,13 +7973,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="B6" t="s">
-        <v>844</v>
+        <v>816</v>
       </c>
       <c r="C6" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -7984,13 +7990,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="C7" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -8001,13 +8007,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="B8" t="s">
-        <v>850</v>
+        <v>822</v>
       </c>
       <c r="C8" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8018,13 +8024,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>824</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>825</v>
       </c>
       <c r="C9" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -8035,13 +8041,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="B10" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="C10" t="s">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -8052,13 +8058,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="C11" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -8069,13 +8075,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
       <c r="B12" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="C12" t="s">
-        <v>860</v>
+        <v>832</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -8086,13 +8092,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="B13" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
       <c r="C13" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -8103,13 +8109,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="B14" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
       <c r="C14" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -8120,13 +8126,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>867</v>
+        <v>839</v>
       </c>
       <c r="B15" t="s">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="C15" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -8137,13 +8143,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
       <c r="B16" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="C16" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -8185,13 +8191,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>873</v>
+        <v>845</v>
       </c>
       <c r="B2" t="s">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -8202,13 +8208,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="B3" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="C3" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -8219,13 +8225,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="C4" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -8236,13 +8242,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="B5" t="s">
-        <v>883</v>
+        <v>855</v>
       </c>
       <c r="C5" t="s">
-        <v>884</v>
+        <v>856</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -8253,13 +8259,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="C6" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -8270,13 +8276,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="C7" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -8287,13 +8293,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
       <c r="B8" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="C8" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8304,13 +8310,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>894</v>
+        <v>866</v>
       </c>
       <c r="B9" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="C9" t="s">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -8321,13 +8327,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="B10" t="s">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="C10" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -8338,13 +8344,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -8355,13 +8361,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="B12" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="C12" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -8372,13 +8378,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="B13" t="s">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="C13" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -8389,13 +8395,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="B14" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="C14" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -8406,13 +8412,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="B15" t="s">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="C15" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -8423,13 +8429,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="B16" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="C16" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -8471,13 +8477,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="B2" t="s">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="C2" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -8488,13 +8494,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="B3" t="s">
-        <v>919</v>
+        <v>891</v>
       </c>
       <c r="C3" t="s">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -8505,13 +8511,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -8522,13 +8528,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="B5" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="C5" t="s">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -8539,13 +8545,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>924</v>
+        <v>896</v>
       </c>
       <c r="B6" t="s">
-        <v>925</v>
+        <v>897</v>
       </c>
       <c r="C6" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -8556,13 +8562,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
       <c r="B7" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -8573,13 +8579,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="B8" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="C8" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8590,13 +8596,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="B9" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
       <c r="C9" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -8607,13 +8613,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
       <c r="B10" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="C10" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -8624,13 +8630,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="B11" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
       <c r="C11" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -8641,13 +8647,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="B12" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
       <c r="C12" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -8658,13 +8664,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="B13" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
       <c r="C13" t="s">
-        <v>947</v>
+        <v>919</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -8675,13 +8681,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>948</v>
+        <v>920</v>
       </c>
       <c r="B14" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="C14" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -8692,13 +8698,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="B15" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
       <c r="C15" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -8709,13 +8715,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>954</v>
+        <v>926</v>
       </c>
       <c r="B16" t="s">
-        <v>955</v>
+        <v>927</v>
       </c>
       <c r="C16" t="s">
-        <v>956</v>
+        <v>928</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -8757,13 +8763,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>957</v>
+        <v>929</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
       <c r="C2" t="s">
-        <v>959</v>
+        <v>931</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -8774,13 +8780,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
       <c r="B3" t="s">
-        <v>961</v>
+        <v>933</v>
       </c>
       <c r="C3" t="s">
-        <v>962</v>
+        <v>934</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -8791,13 +8797,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="B4" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="C4" t="s">
-        <v>965</v>
+        <v>937</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -8808,13 +8814,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="B5" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="C5" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -8825,13 +8831,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="B6" t="s">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="C6" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -8842,13 +8848,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>945</v>
       </c>
       <c r="C7" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -8859,13 +8865,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
       <c r="B8" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="C8" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8876,13 +8882,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>978</v>
+        <v>950</v>
       </c>
       <c r="B9" t="s">
-        <v>979</v>
+        <v>951</v>
       </c>
       <c r="C9" t="s">
-        <v>980</v>
+        <v>952</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -8893,13 +8899,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
       <c r="B10" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="C10" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -8910,13 +8916,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="B11" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="C11" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -8927,13 +8933,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B12" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C12" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -8944,13 +8950,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>987</v>
+        <v>959</v>
       </c>
       <c r="B13" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
       <c r="C13" t="s">
-        <v>989</v>
+        <v>961</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -8961,13 +8967,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
       <c r="B14" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
       <c r="C14" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -8995,13 +9001,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="B16" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="C16" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9043,13 +9049,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>996</v>
+        <v>968</v>
       </c>
       <c r="B2" t="s">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="C2" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -9060,13 +9066,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="B3" t="s">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="C3" t="s">
-        <v>1001</v>
+        <v>973</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -9077,13 +9083,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>1002</v>
+        <v>974</v>
       </c>
       <c r="B4" t="s">
-        <v>1003</v>
+        <v>975</v>
       </c>
       <c r="C4" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -9094,13 +9100,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -9111,13 +9117,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>1005</v>
+        <v>977</v>
       </c>
       <c r="B6" t="s">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="C6" t="s">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -9145,13 +9151,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>980</v>
       </c>
       <c r="B8" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="C8" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -9162,13 +9168,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
       <c r="B9" t="s">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="C9" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -9179,13 +9185,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>1014</v>
+        <v>986</v>
       </c>
       <c r="B10" t="s">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="C10" t="s">
-        <v>1016</v>
+        <v>988</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -9196,13 +9202,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>1017</v>
+        <v>989</v>
       </c>
       <c r="B11" t="s">
-        <v>1018</v>
+        <v>990</v>
       </c>
       <c r="C11" t="s">
-        <v>1019</v>
+        <v>991</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -9213,13 +9219,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>1020</v>
+        <v>992</v>
       </c>
       <c r="B12" t="s">
-        <v>1021</v>
+        <v>993</v>
       </c>
       <c r="C12" t="s">
-        <v>1022</v>
+        <v>994</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -9230,13 +9236,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -9247,13 +9253,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="B14" t="s">
-        <v>1024</v>
+        <v>996</v>
       </c>
       <c r="C14" t="s">
-        <v>1025</v>
+        <v>997</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -9264,13 +9270,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
       <c r="B15" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="C15" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -9281,13 +9287,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="B16" t="s">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="C16" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9329,13 +9335,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="C2" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -9346,13 +9352,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>1035</v>
+        <v>1007</v>
       </c>
       <c r="B3" t="s">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="C3" t="s">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -9363,13 +9369,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="s">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="C4" t="s">
-        <v>1040</v>
+        <v>1012</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -9380,13 +9386,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="B5" t="s">
-        <v>1042</v>
+        <v>1014</v>
       </c>
       <c r="C5" t="s">
-        <v>1043</v>
+        <v>1015</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -9397,13 +9403,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>1044</v>
+        <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1045</v>
+        <v>1017</v>
       </c>
       <c r="C6" t="s">
-        <v>1046</v>
+        <v>1018</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -9414,13 +9420,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="B7" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="C7" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -9431,13 +9437,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="B8" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="C8" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -9448,13 +9454,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="B9" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="C9" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -9465,13 +9471,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="B10" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="C10" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -9482,13 +9488,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="C11" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -9499,13 +9505,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="B12" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
       <c r="C12" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -9516,13 +9522,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="B13" t="s">
-        <v>1063</v>
+        <v>1035</v>
       </c>
       <c r="C13" t="s">
-        <v>1064</v>
+        <v>1036</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -9533,13 +9539,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="B14" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
       <c r="C14" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -9550,13 +9556,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
       <c r="B15" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="C15" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -9567,13 +9573,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="B16" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="C16" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9615,13 +9621,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
       <c r="B2" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
       <c r="C2" t="s">
-        <v>1076</v>
+        <v>1048</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -9632,13 +9638,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>1077</v>
+        <v>1049</v>
       </c>
       <c r="B3" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="C3" t="s">
-        <v>1079</v>
+        <v>1051</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -9649,13 +9655,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="B4" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
       <c r="C4" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -9666,13 +9672,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1056</v>
       </c>
       <c r="C5" t="s">
-        <v>1085</v>
+        <v>1057</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -9683,13 +9689,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
       <c r="B6" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="C6" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -9700,13 +9706,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="B7" t="s">
-        <v>1090</v>
+        <v>1062</v>
       </c>
       <c r="C7" t="s">
-        <v>1091</v>
+        <v>1063</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -9717,13 +9723,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>1092</v>
+        <v>1064</v>
       </c>
       <c r="B8" t="s">
-        <v>1093</v>
+        <v>1065</v>
       </c>
       <c r="C8" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -9734,13 +9740,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>1095</v>
+        <v>1067</v>
       </c>
       <c r="B9" t="s">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="C9" t="s">
-        <v>1097</v>
+        <v>1069</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -9751,13 +9757,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>1098</v>
+        <v>1070</v>
       </c>
       <c r="B10" t="s">
-        <v>1099</v>
+        <v>1071</v>
       </c>
       <c r="C10" t="s">
-        <v>1100</v>
+        <v>1072</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -9768,13 +9774,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>1101</v>
+        <v>1073</v>
       </c>
       <c r="B11" t="s">
-        <v>1102</v>
+        <v>1074</v>
       </c>
       <c r="C11" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -9785,13 +9791,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>1104</v>
+        <v>1076</v>
       </c>
       <c r="B12" t="s">
-        <v>1105</v>
+        <v>1077</v>
       </c>
       <c r="C12" t="s">
-        <v>1106</v>
+        <v>1078</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -9802,13 +9808,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>1107</v>
+        <v>1079</v>
       </c>
       <c r="B13" t="s">
-        <v>1108</v>
+        <v>1080</v>
       </c>
       <c r="C13" t="s">
-        <v>1109</v>
+        <v>1081</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -9819,13 +9825,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>1110</v>
+        <v>1082</v>
       </c>
       <c r="B14" t="s">
-        <v>1111</v>
+        <v>1083</v>
       </c>
       <c r="C14" t="s">
-        <v>1112</v>
+        <v>1084</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -9836,13 +9842,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>1113</v>
+        <v>1085</v>
       </c>
       <c r="B15" t="s">
-        <v>1114</v>
+        <v>1086</v>
       </c>
       <c r="C15" t="s">
-        <v>1115</v>
+        <v>1087</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -9853,13 +9859,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>1116</v>
+        <v>1088</v>
       </c>
       <c r="B16" t="s">
-        <v>1117</v>
+        <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1118</v>
+        <v>1090</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9901,13 +9907,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>1008</v>
+        <v>980</v>
       </c>
       <c r="B2" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -9918,13 +9924,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>1119</v>
+        <v>1091</v>
       </c>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1092</v>
       </c>
       <c r="C3" t="s">
-        <v>1121</v>
+        <v>1093</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -9935,13 +9941,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>1122</v>
+        <v>1094</v>
       </c>
       <c r="B4" t="s">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1124</v>
+        <v>1096</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -9952,13 +9958,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>1125</v>
+        <v>1097</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="s">
-        <v>1127</v>
+        <v>1099</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -9969,13 +9975,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>1128</v>
+        <v>1100</v>
       </c>
       <c r="B6" t="s">
-        <v>1129</v>
+        <v>1101</v>
       </c>
       <c r="C6" t="s">
-        <v>1130</v>
+        <v>1102</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -9986,13 +9992,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>1131</v>
+        <v>1103</v>
       </c>
       <c r="B7" t="s">
-        <v>1132</v>
+        <v>1104</v>
       </c>
       <c r="C7" t="s">
-        <v>1133</v>
+        <v>1105</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -10006,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1134</v>
+        <v>1106</v>
       </c>
       <c r="C8" t="s">
-        <v>1135</v>
+        <v>1107</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -10020,13 +10026,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>1136</v>
+        <v>1108</v>
       </c>
       <c r="B9" t="s">
-        <v>1137</v>
+        <v>1109</v>
       </c>
       <c r="C9" t="s">
-        <v>1138</v>
+        <v>1110</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -10037,13 +10043,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>1139</v>
+        <v>1111</v>
       </c>
       <c r="B10" t="s">
-        <v>1140</v>
+        <v>1112</v>
       </c>
       <c r="C10" t="s">
-        <v>1141</v>
+        <v>1113</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -10054,13 +10060,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -10071,13 +10077,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>1142</v>
+        <v>1114</v>
       </c>
       <c r="B12" t="s">
-        <v>1143</v>
+        <v>1115</v>
       </c>
       <c r="C12" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -10088,13 +10094,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>1145</v>
+        <v>1117</v>
       </c>
       <c r="B13" t="s">
-        <v>1146</v>
+        <v>1118</v>
       </c>
       <c r="C13" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -10111,6 +10117,294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -10138,537 +10432,251 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C3" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>495</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C4" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>778</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C5" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>264</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C6" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>1844</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C7" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>2508</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C8" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C9" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>794</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C10" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>3446</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C11" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>1799</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C12" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>422</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C13" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>2387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C14" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>461</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C15" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <v>2664</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C16" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>441</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
+        <v>1220</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -10710,13 +10718,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -10727,13 +10735,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -10744,13 +10752,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -10761,13 +10769,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -10778,13 +10786,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -10795,13 +10803,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -10812,13 +10820,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -10829,13 +10837,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -10846,13 +10854,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -10863,13 +10871,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -10880,13 +10888,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -10897,13 +10905,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -10914,13 +10922,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -10931,13 +10939,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -10948,13 +10956,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -10996,13 +11004,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -11013,13 +11021,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -11030,13 +11038,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -11047,13 +11055,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -11064,13 +11072,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -11081,13 +11089,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -11098,13 +11106,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -11115,13 +11123,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -11132,13 +11140,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -11149,13 +11157,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -11166,13 +11174,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -11183,13 +11191,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -11200,13 +11208,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -11217,13 +11225,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -11234,13 +11242,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -11282,13 +11290,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -11299,13 +11307,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -11316,13 +11324,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -11333,13 +11341,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -11350,13 +11358,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -11367,13 +11375,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -11384,13 +11392,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -11401,13 +11409,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -11418,13 +11426,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -11435,13 +11443,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -11452,13 +11460,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -11469,13 +11477,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -11486,13 +11494,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -11503,13 +11511,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -11520,13 +11528,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -11568,13 +11576,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -11585,13 +11593,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -11602,13 +11610,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -11619,13 +11627,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -11636,13 +11644,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -11653,13 +11661,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -11670,13 +11678,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -11687,13 +11695,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -11704,13 +11712,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -11721,13 +11729,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -11738,13 +11746,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -11755,13 +11763,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -11772,13 +11780,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -11789,13 +11797,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -11806,13 +11814,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -11854,13 +11862,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -11871,13 +11879,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -11888,13 +11896,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -11905,13 +11913,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -11922,13 +11930,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -11939,13 +11947,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -11956,13 +11964,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -11973,13 +11981,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -11990,13 +11998,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -12007,13 +12015,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -12024,13 +12032,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -12041,13 +12049,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -12058,13 +12066,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -12075,13 +12083,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -12092,13 +12100,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
